--- a/TR-SLL FEA Analysis/FEA Data - 0.8mm;25mm.xlsx
+++ b/TR-SLL FEA Analysis/FEA Data - 0.8mm;25mm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Srivatsan\HSA-gripper-files\TR-SLL FEA Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AFAE3B-D16D-4284-881B-D42DD359E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840DA332-171B-4B61-9972-B22719A5F546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="490" yWindow="340" windowWidth="24050" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -119,21 +119,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +416,7 @@
   <dimension ref="A4:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,12 +475,12 @@
       <c r="E5" s="3">
         <v>0.42615656466009</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.120367136274403</v>
       </c>
       <c r="G5" s="3">
-        <f>ASIN(C5/SQRT($A$4^2+C5^2))</f>
-        <v>0.21498968648076261</v>
+        <f>ASIN(F5/SQRT($A$4^2+F5^2))</f>
+        <v>9.6290732913973803E-3</v>
       </c>
       <c r="H5" s="3">
         <v>0.158933248962319</v>
@@ -509,8 +506,8 @@
         <v>8.0664015245307405E-2</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G69" si="0">ASIN(C6/SQRT($A$4^2+C6^2))</f>
-        <v>0.20199078640820628</v>
+        <f t="shared" ref="G6:G69" si="0">ASIN(F6/SQRT($A$4^2+F6^2))</f>
+        <v>6.4530316465742392E-3</v>
       </c>
       <c r="H6" s="3">
         <v>0.11992772517771599</v>
@@ -537,7 +534,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>0.19236408411365796</v>
+        <v>5.4073427115215282E-3</v>
       </c>
       <c r="H7" s="3">
         <v>0.10413155295092</v>
@@ -564,7 +561,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>0.18655602538742935</v>
+        <v>5.1714801653522735E-3</v>
       </c>
       <c r="H8" s="3">
         <v>9.5588762643635306E-2</v>
@@ -591,7 +588,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0.18357482271253497</v>
+        <v>5.2118541877032368E-3</v>
       </c>
       <c r="H9" s="3">
         <v>9.1081401026998798E-2</v>
@@ -618,7 +615,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>0.18213225815715581</v>
+        <v>5.3896183788539114E-3</v>
       </c>
       <c r="H10" s="3">
         <v>8.8001077010440798E-2</v>
@@ -645,7 +642,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0.18172559826832338</v>
+        <v>5.6543801556069306E-3</v>
       </c>
       <c r="H11" s="3">
         <v>8.6489016348624506E-2</v>
@@ -672,7 +669,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0.18172654196928459</v>
+        <v>5.9705455862845425E-3</v>
       </c>
       <c r="H12" s="3">
         <v>8.5326375096759305E-2</v>
@@ -699,7 +696,7 @@
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>0.18199272495406421</v>
+        <v>6.3269421858345122E-3</v>
       </c>
       <c r="H13" s="3">
         <v>8.4679993369214099E-2</v>
@@ -726,7 +723,7 @@
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0.18257590991946479</v>
+        <v>6.7151230409491607E-3</v>
       </c>
       <c r="H14" s="3">
         <v>8.4535866438686699E-2</v>
@@ -753,7 +750,7 @@
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>0.18326011786342641</v>
+        <v>7.1301626787990359E-3</v>
       </c>
       <c r="H15" s="3">
         <v>8.4061915780141702E-2</v>
@@ -780,7 +777,7 @@
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>0.18393528501711998</v>
+        <v>7.5654386120627588E-3</v>
       </c>
       <c r="H16" s="3">
         <v>8.4475567261296805E-2</v>
@@ -807,7 +804,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>0.18437236520571756</v>
+        <v>8.0103805752972899E-3</v>
       </c>
       <c r="H17" s="3">
         <v>8.4433204248342594E-2</v>
@@ -834,7 +831,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>0.1850838309048895</v>
+        <v>8.4784701229758605E-3</v>
       </c>
       <c r="H18" s="3">
         <v>8.4993950406312205E-2</v>
@@ -861,7 +858,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>0.18544175427403317</v>
+        <v>8.9465772546652323E-3</v>
       </c>
       <c r="H19" s="3">
         <v>8.5722654436756904E-2</v>
@@ -888,7 +885,7 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>0.18600440620431147</v>
+        <v>9.4292587101034286E-3</v>
       </c>
       <c r="H20" s="3">
         <v>8.5945519076052301E-2</v>
@@ -915,7 +912,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>0.18659062321718231</v>
+        <v>9.9292662399027617E-3</v>
       </c>
       <c r="H21" s="3">
         <v>8.6361840935156406E-2</v>
@@ -942,7 +939,7 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>0.18689322667125394</v>
+        <v>1.0433136082773244E-2</v>
       </c>
       <c r="H22" s="3">
         <v>8.6103713095677797E-2</v>
@@ -969,7 +966,7 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>0.18700970683991147</v>
+        <v>1.0944520724212212E-2</v>
       </c>
       <c r="H23" s="3">
         <v>8.6596789872665697E-2</v>
@@ -996,7 +993,7 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>0.18750206373892869</v>
+        <v>1.1470000587439171E-2</v>
       </c>
       <c r="H24" s="3">
         <v>8.7454063750763006E-2</v>
@@ -1023,7 +1020,7 @@
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>0.18782911894938126</v>
+        <v>1.2000763129339422E-2</v>
       </c>
       <c r="H25" s="3">
         <v>8.7823726722279505E-2</v>
@@ -1050,7 +1047,7 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>0.18781843001795356</v>
+        <v>1.2536885456748404E-2</v>
       </c>
       <c r="H26" s="3">
         <v>8.7917363652878999E-2</v>
@@ -1077,7 +1074,7 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>0.1880848863912005</v>
+        <v>1.3079201157758099E-2</v>
       </c>
       <c r="H27" s="3">
         <v>8.8644369917295004E-2</v>
@@ -1104,7 +1101,7 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>0.18882563860343865</v>
+        <v>1.363864821862573E-2</v>
       </c>
       <c r="H28" s="3">
         <v>8.9428164984755004E-2</v>
@@ -1131,7 +1128,7 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>0.18888704839709455</v>
+        <v>1.418928896545728E-2</v>
       </c>
       <c r="H29" s="3">
         <v>8.9755112125793499E-2</v>
@@ -1158,7 +1155,7 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>0.18858487118641329</v>
+        <v>1.475415844595649E-2</v>
       </c>
       <c r="H30" s="3">
         <v>9.01484077558041E-2</v>
@@ -1185,7 +1182,7 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>0.18867227178206539</v>
+        <v>1.5322569906354873E-2</v>
       </c>
       <c r="H31" s="3">
         <v>9.05895009058717E-2</v>
@@ -1212,7 +1209,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>0.18947288666448639</v>
+        <v>1.5908214305307224E-2</v>
       </c>
       <c r="H32" s="3">
         <v>9.1340111285035899E-2</v>
@@ -1239,7 +1236,7 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>0.18905373765416036</v>
+        <v>1.648512231451037E-2</v>
       </c>
       <c r="H33" s="3">
         <v>9.1653438287093297E-2</v>
@@ -1266,7 +1263,7 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>0.18929061105817871</v>
+        <v>1.7077742100046502E-2</v>
       </c>
       <c r="H34" s="3">
         <v>9.2138928825094099E-2</v>
@@ -1293,7 +1290,7 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>0.18912857558962745</v>
+        <v>1.7664975845453765E-2</v>
       </c>
       <c r="H35" s="3">
         <v>9.2739973929529901E-2</v>
@@ -1320,7 +1317,7 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" si="0"/>
-        <v>0.18966661207167707</v>
+        <v>1.8275171858117226E-2</v>
       </c>
       <c r="H36" s="3">
         <v>9.3398864945910098E-2</v>
@@ -1347,7 +1344,7 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" si="0"/>
-        <v>0.18925981978685244</v>
+        <v>1.8870349570581996E-2</v>
       </c>
       <c r="H37" s="3">
         <v>9.3826189861261594E-2</v>
@@ -1374,7 +1371,7 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" si="0"/>
-        <v>0.18980517024730695</v>
+        <v>1.9493690810662267E-2</v>
       </c>
       <c r="H38" s="3">
         <v>9.3134020444477397E-2</v>
@@ -1401,7 +1398,7 @@
       </c>
       <c r="G39" s="3">
         <f t="shared" si="0"/>
-        <v>0.18922439096207391</v>
+        <v>2.0101368097343485E-2</v>
       </c>
       <c r="H39" s="3">
         <v>9.4689986138881493E-2</v>
@@ -1428,7 +1425,7 @@
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>0.18977070231561938</v>
+        <v>2.0732125119124416E-2</v>
       </c>
       <c r="H40" s="3">
         <v>9.5315927788067495E-2</v>
@@ -1455,7 +1452,7 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>0.18929587352943286</v>
+        <v>2.1351942552406099E-2</v>
       </c>
       <c r="H41" s="3">
         <v>9.5511721035036398E-2</v>
@@ -1482,7 +1479,7 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>0.18947434902517288</v>
+        <v>2.1990586077781201E-2</v>
       </c>
       <c r="H42" s="3">
         <v>9.5616550267025202E-2</v>
@@ -1509,7 +1506,7 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" si="0"/>
-        <v>0.18977871118711009</v>
+        <v>2.2632720257159782E-2</v>
       </c>
       <c r="H43" s="3">
         <v>9.5672587120656405E-2</v>
@@ -1536,7 +1533,7 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" si="0"/>
-        <v>0.18974633744294425</v>
+        <v>2.327512945656731E-2</v>
       </c>
       <c r="H44" s="3">
         <v>9.7321974519543303E-2</v>
@@ -1563,7 +1560,7 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" si="0"/>
-        <v>0.18885627271316888</v>
+        <v>2.3913220921184048E-2</v>
       </c>
       <c r="H45" s="3">
         <v>9.6653486442150396E-2</v>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" si="0"/>
-        <v>0.18962781870386494</v>
+        <v>2.4576429501991511E-2</v>
       </c>
       <c r="H46" s="3">
         <v>9.6962030477847294E-2</v>
@@ -1617,7 +1614,7 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" si="0"/>
-        <v>0.18941605683384002</v>
+        <v>2.5232085574372908E-2</v>
       </c>
       <c r="H47" s="3">
         <v>9.7349368464165198E-2</v>
@@ -1644,7 +1641,7 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" si="0"/>
-        <v>0.18941414481144977</v>
+        <v>2.5897224042305721E-2</v>
       </c>
       <c r="H48" s="3">
         <v>9.7690125247117704E-2</v>
@@ -1671,7 +1668,7 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" si="0"/>
-        <v>0.18837409892403539</v>
+        <v>2.6559679355308806E-2</v>
       </c>
       <c r="H49" s="3">
         <v>9.7845000234003901E-2</v>
@@ -1698,7 +1695,7 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" si="0"/>
-        <v>0.18884724447137177</v>
+        <v>2.7236915262438214E-2</v>
       </c>
       <c r="H50" s="3">
         <v>9.8985819526551694E-2</v>
@@ -1725,7 +1722,7 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" si="0"/>
-        <v>0.18893851382746624</v>
+        <v>2.7913326815476199E-2</v>
       </c>
       <c r="H51" s="3">
         <v>9.9275960492408E-2</v>
@@ -1752,7 +1749,7 @@
       </c>
       <c r="G52" s="3">
         <f t="shared" si="0"/>
-        <v>0.18903397558779164</v>
+        <v>2.8598853654460864E-2</v>
       </c>
       <c r="H52" s="3">
         <v>9.97345278628083E-2</v>
@@ -1779,7 +1776,7 @@
       </c>
       <c r="G53" s="3">
         <f t="shared" si="0"/>
-        <v>0.18760062268123606</v>
+        <v>2.9277545875396417E-2</v>
       </c>
       <c r="H53" s="3">
         <v>9.9613674768331398E-2</v>
@@ -1806,7 +1803,7 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" si="0"/>
-        <v>0.18879450793098046</v>
+        <v>2.998216086926303E-2</v>
       </c>
       <c r="H54" s="3">
         <v>9.9852134175392501E-2</v>
@@ -1833,7 +1830,7 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" si="0"/>
-        <v>0.18837123540059586</v>
+        <v>3.0670631257481925E-2</v>
       </c>
       <c r="H55" s="3">
         <v>0.101557157893278</v>
@@ -1860,7 +1857,7 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" si="0"/>
-        <v>0.18828267006531749</v>
+        <v>3.1372818851935623E-2</v>
       </c>
       <c r="H56" s="3">
         <v>0.10151804690881699</v>
@@ -1887,7 +1884,7 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" si="0"/>
-        <v>0.1868490722875914</v>
+        <v>3.207512561650578E-2</v>
       </c>
       <c r="H57" s="3">
         <v>0.101925674324494</v>
@@ -1914,7 +1911,7 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" si="0"/>
-        <v>0.18812566914337986</v>
+        <v>3.2791473413291958E-2</v>
       </c>
       <c r="H58" s="3">
         <v>0.102480747543294</v>
@@ -1941,7 +1938,7 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" si="0"/>
-        <v>0.18824276856378735</v>
+        <v>3.3511039826271842E-2</v>
       </c>
       <c r="H59" s="3">
         <v>0.102480683924493</v>
@@ -1968,7 +1965,7 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" si="0"/>
-        <v>0.18802108334042064</v>
+        <v>3.4229531137105799E-2</v>
       </c>
       <c r="H60" s="3">
         <v>0.103113602553619</v>
@@ -1995,7 +1992,7 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" si="0"/>
-        <v>0.18652220134975339</v>
+        <v>3.4949185699553062E-2</v>
       </c>
       <c r="H61" s="3">
         <v>0.10331822483011099</v>
@@ -2022,7 +2019,7 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" si="0"/>
-        <v>0.18730200041225825</v>
+        <v>3.5683267961381555E-2</v>
       </c>
       <c r="H62" s="3">
         <v>0.104585375448058</v>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" si="0"/>
-        <v>0.18737986501338588</v>
+        <v>3.6422809718702771E-2</v>
       </c>
       <c r="H63" s="3">
         <v>0.104619681120581</v>
@@ -2076,7 +2073,7 @@
       </c>
       <c r="G64" s="3">
         <f t="shared" si="0"/>
-        <v>0.18703031584895086</v>
+        <v>3.7153200311835409E-2</v>
       </c>
       <c r="H64" s="3">
         <v>0.10537149473978399</v>
@@ -2103,7 +2100,7 @@
       </c>
       <c r="G65" s="3">
         <f t="shared" si="0"/>
-        <v>0.18564543324992552</v>
+        <v>3.7889991765926376E-2</v>
       </c>
       <c r="H65" s="3">
         <v>0.10569160235116901</v>
@@ -2130,7 +2127,7 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" si="0"/>
-        <v>0.18555686468854496</v>
+        <v>3.8604722092691994E-2</v>
       </c>
       <c r="H66" s="3">
         <v>0.106338640885494</v>
@@ -2157,7 +2154,7 @@
       </c>
       <c r="G67" s="3">
         <f t="shared" si="0"/>
-        <v>0.18537854899405659</v>
+        <v>3.9354188614639338E-2</v>
       </c>
       <c r="H67" s="3">
         <v>0.106704599976122</v>
@@ -2184,7 +2181,7 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" si="0"/>
-        <v>0.18536942693820582</v>
+        <v>4.0060144373641429E-2</v>
       </c>
       <c r="H68" s="3">
         <v>0.10713620796549</v>
@@ -2211,7 +2208,7 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" si="0"/>
-        <v>0.18405795837580291</v>
+        <v>4.0819406198032863E-2</v>
       </c>
       <c r="H69" s="3">
         <v>0.107081252595972</v>
@@ -2237,8 +2234,8 @@
         <v>0.52085560384002705</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" ref="G70:G83" si="1">ASIN(C70/SQRT($A$4^2+C70^2))</f>
-        <v>0.18544772218907812</v>
+        <f t="shared" ref="G70:G83" si="1">ASIN(F70/SQRT($A$4^2+F70^2))</f>
+        <v>4.1644357651226885E-2</v>
       </c>
       <c r="H70" s="3">
         <v>0.10902390225936801</v>
@@ -2265,7 +2262,7 @@
       </c>
       <c r="G71" s="3">
         <f t="shared" si="1"/>
-        <v>0.18507910191273255</v>
+        <v>4.2408853900883295E-2</v>
       </c>
       <c r="H71" s="3">
         <v>0.109272048682545</v>
@@ -2292,7 +2289,7 @@
       </c>
       <c r="G72" s="3">
         <f t="shared" si="1"/>
-        <v>0.18502401941476912</v>
+        <v>4.3129250762688823E-2</v>
       </c>
       <c r="H72" s="3">
         <v>0.10946055874659</v>
@@ -2319,7 +2316,7 @@
       </c>
       <c r="G73" s="3">
         <f t="shared" si="1"/>
-        <v>0.18417075983652781</v>
+        <v>4.3974078497508624E-2</v>
       </c>
       <c r="H73" s="3">
         <v>0.109472551904597</v>
@@ -2346,7 +2343,7 @@
       </c>
       <c r="G74" s="3">
         <f t="shared" si="1"/>
-        <v>0.18460794056774307</v>
+        <v>4.4733045062253951E-2</v>
       </c>
       <c r="H74" s="3">
         <v>0.109516015581143</v>
@@ -2373,7 +2370,7 @@
       </c>
       <c r="G75" s="3">
         <f t="shared" si="1"/>
-        <v>0.18405613238692589</v>
+        <v>4.5451362567610412E-2</v>
       </c>
       <c r="H75" s="3">
         <v>0.111493009576435</v>
@@ -2400,7 +2397,7 @@
       </c>
       <c r="G76" s="3">
         <f t="shared" si="1"/>
-        <v>0.1842382791968443</v>
+        <v>4.6212213036665249E-2</v>
       </c>
       <c r="H76" s="3">
         <v>0.11085898840047299</v>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="G77" s="3">
         <f t="shared" si="1"/>
-        <v>0.18355695225544857</v>
+        <v>4.7130508540041423E-2</v>
       </c>
       <c r="H77" s="3">
         <v>0.11045828606673699</v>
@@ -2454,7 +2451,7 @@
       </c>
       <c r="G78" s="3">
         <f t="shared" si="1"/>
-        <v>0.1832446656415927</v>
+        <v>4.7930901583698518E-2</v>
       </c>
       <c r="H78" s="3">
         <v>0.11004555126184599</v>
@@ -2481,7 +2478,7 @@
       </c>
       <c r="G79" s="3">
         <f t="shared" si="1"/>
-        <v>0.18328799936403811</v>
+        <v>4.8695377888830854E-2</v>
       </c>
       <c r="H79" s="3">
         <v>0.11294271477177199</v>
@@ -2508,7 +2505,7 @@
       </c>
       <c r="G80" s="3">
         <f t="shared" si="1"/>
-        <v>0.18377817763442794</v>
+        <v>4.9399303806701253E-2</v>
       </c>
       <c r="H80" s="3">
         <v>0.113874638121231</v>
@@ -2535,7 +2532,7 @@
       </c>
       <c r="G81" s="3">
         <f t="shared" si="1"/>
-        <v>0.18254037771013631</v>
+        <v>5.0339066161707607E-2</v>
       </c>
       <c r="H81" s="3">
         <v>0.11497016354098701</v>
@@ -2562,7 +2559,7 @@
       </c>
       <c r="G82" s="3">
         <f t="shared" si="1"/>
-        <v>0.18235328290350469</v>
+        <v>5.1135320121642409E-2</v>
       </c>
       <c r="H82" s="3">
         <v>0.11494763091653599</v>
@@ -2589,7 +2586,7 @@
       </c>
       <c r="G83" s="3">
         <f t="shared" si="1"/>
-        <v>0.18132855535429249</v>
+        <v>5.1749974047329228E-2</v>
       </c>
       <c r="H83" s="3">
         <v>0.116461075936692</v>
